--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>https://launchpad-qa.orica.net/fiori#Shell-home</t>
+  </si>
+  <si>
+    <t>AssignAllCustomers_1031</t>
+  </si>
+  <si>
+    <t>55207,6588,7102,55163,7138,62532,56161,11463,75753,14519,14571,6142,13575,6613,18304,86283,14625,7116,62704,82142,6257,1061,62275,75906,1500,4653,4285,9153,16363,2002,5970,15129,6616,62705,13171,8665,87196,3951,3340,44019,3949,10713,13302,61965,58140,82968</t>
+  </si>
+  <si>
+    <t>Customers for whom Assign All Required in SAP in one go</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -434,6 +443,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2232,7 +2242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1">
+    <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -2240,8 +2250,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+    <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
         <v>103</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>770200</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>101002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -2265,7 +2275,7 @@
         <v>10970110</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>740070</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="14.25" customHeight="1">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -2281,8 +2291,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1">
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -2298,12 +2308,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>BotEmailId</t>
-  </si>
-  <si>
-    <t>svc_rparobot2@orica.com</t>
   </si>
   <si>
     <t>NoOfRetry_Login</t>
@@ -762,7 +759,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -867,12 +864,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1873,7 +1865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2053,7 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -2072,7 +2064,7 @@
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2080,180 +2072,180 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
         <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
         <v>96</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51">
         <v>770200</v>
@@ -2261,7 +2253,7 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52">
         <v>101002</v>
@@ -2269,7 +2261,7 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53">
         <v>10970110</v>
@@ -2277,7 +2269,7 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <v>740070</v>
@@ -2285,39 +2277,39 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" t="s">
         <v>115</v>
-      </c>
-      <c r="C60" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3259,8 +3251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3309,10 +3301,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -3320,10 +3312,10 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -3331,10 +3323,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -3342,10 +3334,10 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -3353,10 +3345,10 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -3364,10 +3356,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>45</v>
@@ -3375,10 +3367,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>45</v>
@@ -3386,16 +3378,26 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>Customers for whom Assign All Required in SAP in one go</t>
+  </si>
+  <si>
+    <t>EmailSubject_Failure_BE</t>
+  </si>
+  <si>
+    <t>Business Exception for Capybara Fin009 Performer</t>
   </si>
 </sst>
 </file>
@@ -1865,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2312,7 +2318,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3251,7 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -275,9 +275,6 @@
     <t>Cabybara Fin009 - Bot Termination</t>
   </si>
   <si>
-    <t>EmailTo</t>
-  </si>
-  <si>
     <t>Remaining balance</t>
   </si>
   <si>
@@ -378,6 +375,21 @@
   </si>
   <si>
     <t>Business Exception for Capybara Fin009 Performer</t>
+  </si>
+  <si>
+    <t>EmailTo_Business</t>
+  </si>
+  <si>
+    <t>EmailTo_Support</t>
+  </si>
+  <si>
+    <t>StatusReport_FileName</t>
+  </si>
+  <si>
+    <t>StatusReport_FilePath</t>
+  </si>
+  <si>
+    <t>Data/Output/</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2098,7 +2110,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -2176,82 +2188,82 @@
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="46" spans="1:2" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" customHeight="1">
       <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
         <v>770200</v>
@@ -2259,7 +2271,7 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B52">
         <v>101002</v>
@@ -2267,7 +2279,7 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53">
         <v>10970110</v>
@@ -2275,7 +2287,7 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>740070</v>
@@ -2283,52 +2295,66 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
         <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
@@ -3264,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3391,10 +3417,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -3411,7 +3437,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Documents\Uipath\Capybara_Fin009_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -359,9 +359,6 @@
     <t>Data\Temp</t>
   </si>
   <si>
-    <t>https://launchpad-qa.orica.net/fiori#Shell-home</t>
-  </si>
-  <si>
     <t>AssignAllCustomers_1031</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>Data/Output/</t>
+  </si>
+  <si>
+    <t>https://launchpad.orica.net/fiori#Shell-home</t>
   </si>
 </sst>
 </file>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2085,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -2110,7 +2110,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -2321,35 +2321,35 @@
     <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" t="s">
         <v>113</v>
-      </c>
-      <c r="C60" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
         <v>120</v>
-      </c>
-      <c r="B63" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
         <v>109</v>
@@ -3290,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3417,10 +3417,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>45</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.lara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A8A0E-3F44-4AFD-9885-AB60A975648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -389,14 +390,14 @@
     <t>Data/Output/</t>
   </si>
   <si>
-    <t>https://launchpad.orica.net/fiori#Shell-home</t>
+    <t>https://launchpad-dt.orica.net/fiori#Shell-home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -420,6 +421,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -438,31 +445,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -773,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -881,9 +888,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B10" s="5"/>
-    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1880,11 +1885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2085,7 +2090,7 @@
         <v>51</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -2109,7 +2114,7 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2117,7 +2122,7 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2125,7 +2130,7 @@
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2133,7 +2138,7 @@
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2149,7 +2154,7 @@
       <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2157,7 +2162,7 @@
       <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2323,7 +2328,7 @@
       <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C60" t="s">
@@ -3281,13 +3286,16 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" location="Shell-home" xr:uid="{BEFEDCED-E844-4D82-B851-4BBDB6716B7B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.lara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A8A0E-3F44-4AFD-9885-AB60A975648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -390,14 +389,14 @@
     <t>Data/Output/</t>
   </si>
   <si>
-    <t>https://launchpad-dt.orica.net/fiori#Shell-home</t>
+    <t>https://launchpad.orica.net/fiori#Shell-home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,12 +420,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -445,31 +438,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,7 +881,9 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="B10" s="5"/>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1885,11 +1880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2090,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -2114,7 +2109,7 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2122,7 +2117,7 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2130,7 +2125,7 @@
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2138,7 +2133,7 @@
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2154,7 +2149,7 @@
       <c r="A33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2162,7 +2157,7 @@
       <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2328,7 +2323,7 @@
       <c r="A60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C60" t="s">
@@ -3286,16 +3281,13 @@
     <row r="988" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" location="Shell-home" xr:uid="{BEFEDCED-E844-4D82-B851-4BBDB6716B7B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
